--- a/Office/Demo info.xlsx
+++ b/Office/Demo info.xlsx
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +150,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +207,23 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,210 +759,210 @@
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>42512</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>32</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>1.99</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>42529</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>60</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>8.99</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>42546</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <v>90</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>4.99</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>42563</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>29</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>1.99</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>42580</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>81</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
         <v>1619.19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>42597</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <v>35</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6">
         <v>4.99</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>42614</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>125</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>42631</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="6">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <v>15.99</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="6">
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>42648</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="6">
         <v>28</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="6">
         <v>8.99</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="6">
         <v>251.72</v>
       </c>
     </row>
@@ -1121,164 +1150,164 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>42801</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="10">
         <v>7</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="10">
         <v>139.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>42818</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="10">
         <v>50</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="10">
         <v>4.99</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="10">
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>42835</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="10">
         <v>66</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="10">
         <v>1.99</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="10">
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>42852</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="10">
         <v>96</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="10">
         <v>4.99</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="10">
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>42869</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="10">
         <v>53</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="10">
         <v>1.29</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="10">
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>42886</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="10">
         <v>80</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="10">
         <v>8.99</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="10">
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>42903</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="10">
         <v>5</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="10">
         <v>125</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="10">
         <v>625</v>
       </c>
     </row>

--- a/Office/Demo info.xlsx
+++ b/Office/Demo info.xlsx
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +150,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,6 +205,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,256 +647,256 @@
         <v>179.64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>42426</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>27</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>539.73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>42444</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>56</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>2.99</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <v>167.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>42461</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>60</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>4.99</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>299.39999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>42478</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>75</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>1.99</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="6">
         <v>149.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>42495</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>90</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>4.99</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="6">
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>42512</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>32</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>1.99</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>42529</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>60</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>8.99</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>42546</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <v>90</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>4.99</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>42563</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>29</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>1.99</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>42580</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>81</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="8">
         <v>1619.19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>42597</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <v>35</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6">
         <v>4.99</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
     </row>
@@ -983,187 +1015,187 @@
         <v>299.85000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>42699</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="10">
         <v>96</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="10">
         <v>4.99</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="10">
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>42716</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="10">
         <v>67</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="10">
         <v>1.29</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="10">
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>42733</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="10">
         <v>74</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="10">
         <v>15.99</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="12">
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>42750</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="10">
         <v>46</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="10">
         <v>8.99</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="10">
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>42767</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="10">
         <v>87</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="10">
         <v>15</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="12">
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>42784</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="10">
         <v>4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="10">
         <v>4.99</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="10">
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>42801</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="10">
         <v>7</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="10">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="10">
         <v>139.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:7" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>42818</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="10">
         <v>50</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="10">
         <v>4.99</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="10">
         <v>249.5</v>
       </c>
     </row>
